--- a/pslab/misc/pslab.xlsx
+++ b/pslab/misc/pslab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samsal/code/sci7/pslab/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023F9DBD-CA9F-B946-B0FF-2BA7394C0C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160A81E3-94D4-CE48-8E2F-91A6F705EDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28780" windowHeight="17500" activeTab="2" xr2:uid="{0D474A96-D2BB-EA4E-9ECF-C3E62CE09279}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28780" windowHeight="17500" activeTab="5" xr2:uid="{0D474A96-D2BB-EA4E-9ECF-C3E62CE09279}"/>
   </bookViews>
   <sheets>
     <sheet name="mccabe-thiele" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -671,27 +671,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -741,6 +720,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2905,7 +2905,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2917,7 +2917,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.34</c:v>
+                  <c:v>0.77500000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9840,6 +9840,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -27771,39 +27802,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="69" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="77" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="80" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="66" t="s">
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="61"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="33" t="s">
         <v>20</v>
@@ -27883,12 +27914,12 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="62" t="s">
+      <c r="T3" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="64"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81"/>
       <c r="AG3" s="34" t="s">
         <v>40</v>
       </c>
@@ -28243,12 +28274,12 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="59" t="s">
+      <c r="P11" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="61"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="78"/>
       <c r="T11" s="26" t="s">
         <v>25</v>
       </c>
@@ -28341,11 +28372,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="10">
@@ -28354,12 +28385,12 @@
       <c r="K13" s="11">
         <v>0.65990000000000004</v>
       </c>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="73"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="66"/>
       <c r="P13" s="20" t="s">
         <v>33</v>
       </c>
@@ -28397,11 +28428,11 @@
         <v>9</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="10">
@@ -28449,11 +28480,11 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="10">
@@ -28493,11 +28524,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="10">
@@ -28516,12 +28547,12 @@
         <v>16</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="59" t="s">
+      <c r="P16" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="61"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="78"/>
       <c r="T16" s="26"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
@@ -29090,6 +29121,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L13:O13"/>
@@ -29097,12 +29134,6 @@
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29120,39 +29151,39 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="69" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="77" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="80" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="66" t="s">
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="61"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="33" t="s">
         <v>20</v>
@@ -29230,12 +29261,12 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="62" t="s">
+      <c r="T3" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="64"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81"/>
       <c r="AG3" s="34" t="s">
         <v>40</v>
       </c>
@@ -29590,10 +29621,10 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="61"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="78"/>
       <c r="T11" s="26" t="s">
         <v>25</v>
       </c>
@@ -29677,11 +29708,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="10">
@@ -29690,12 +29721,12 @@
       <c r="K13" s="11">
         <v>0.98</v>
       </c>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="73"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="66"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
@@ -29723,11 +29754,11 @@
         <v>9</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="10">
@@ -29771,11 +29802,11 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="10"/>
@@ -29811,11 +29842,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="10"/>
@@ -29830,12 +29861,12 @@
         <v>16</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="59" t="s">
+      <c r="P16" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="61"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="78"/>
       <c r="T16" s="26"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
@@ -30331,39 +30362,39 @@
       <c r="AI29" s="32"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="69" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="K31" s="70"/>
-      <c r="L31" s="77" t="s">
+      <c r="K31" s="63"/>
+      <c r="L31" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="80" t="s">
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="Q31" s="81"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="66" t="s">
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U31" s="67"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="68"/>
+      <c r="U31" s="60"/>
+      <c r="V31" s="60"/>
+      <c r="W31" s="61"/>
       <c r="AG31" s="33"/>
       <c r="AH31" s="33" t="s">
         <v>20</v>
@@ -30434,12 +30465,12 @@
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="22"/>
-      <c r="T33" s="62" t="s">
+      <c r="T33" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="U33" s="63"/>
-      <c r="V33" s="63"/>
-      <c r="W33" s="64"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="81"/>
       <c r="AG33" s="34" t="s">
         <v>40</v>
       </c>
@@ -30744,10 +30775,10 @@
       <c r="M41" s="15"/>
       <c r="N41" s="15"/>
       <c r="O41" s="16"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="61"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="78"/>
       <c r="T41" s="26" t="s">
         <v>25</v>
       </c>
@@ -30814,11 +30845,11 @@
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="65" t="s">
+      <c r="E43" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
       <c r="H43" s="2"/>
       <c r="I43" s="3"/>
       <c r="J43" s="10">
@@ -30827,12 +30858,12 @@
       <c r="K43" s="11">
         <v>0.98</v>
       </c>
-      <c r="L43" s="71" t="s">
+      <c r="L43" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="73"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="66"/>
       <c r="P43" s="20"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="21"/>
@@ -30856,11 +30887,11 @@
         <v>9</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="65" t="s">
+      <c r="E44" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
       <c r="H44" s="2"/>
       <c r="I44" s="3"/>
       <c r="J44" s="10">
@@ -30897,11 +30928,11 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="65" t="s">
+      <c r="E45" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
       <c r="H45" s="2"/>
       <c r="I45" s="3"/>
       <c r="J45" s="10"/>
@@ -30933,11 +30964,11 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="65" t="s">
+      <c r="E46" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
       <c r="H46" s="2"/>
       <c r="I46" s="3"/>
       <c r="J46" s="10"/>
@@ -30952,12 +30983,12 @@
         <v>16</v>
       </c>
       <c r="O46" s="16"/>
-      <c r="P46" s="59" t="s">
+      <c r="P46" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="Q46" s="60"/>
-      <c r="R46" s="60"/>
-      <c r="S46" s="61"/>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="78"/>
       <c r="T46" s="26"/>
       <c r="U46" s="27"/>
       <c r="V46" s="27"/>
@@ -31445,6 +31476,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="P16:S16"/>
     <mergeCell ref="E46:G46"/>
     <mergeCell ref="P46:S46"/>
     <mergeCell ref="A31:I31"/>
@@ -31456,21 +31502,6 @@
     <mergeCell ref="L43:O43"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="E45:G45"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31481,46 +31512,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE33945-7B64-FA4D-9B50-A5C74E3C2E51}">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:I28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="69" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="77" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="80" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="66" t="s">
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="61"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="33" t="s">
         <v>20</v>
@@ -31604,12 +31635,12 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="62" t="s">
+      <c r="T3" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="64"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81"/>
       <c r="AG3" s="34" t="s">
         <v>40</v>
       </c>
@@ -31997,10 +32028,10 @@
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="61"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="78"/>
       <c r="T11" s="26" t="s">
         <v>25</v>
       </c>
@@ -32088,11 +32119,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="10">
@@ -32101,18 +32132,18 @@
       <c r="K13" s="11">
         <v>0.98</v>
       </c>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="73"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="66"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="60" t="s">
+      <c r="R13" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="S13" s="61"/>
+      <c r="S13" s="78"/>
       <c r="T13" s="26"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
@@ -32137,11 +32168,11 @@
         <v>9</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="10">
@@ -32184,14 +32215,14 @@
       <c r="A15" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="37"/>
@@ -32229,11 +32260,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="10"/>
@@ -32248,12 +32279,12 @@
         <v>16</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="59" t="s">
+      <c r="P16" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="61"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="78"/>
       <c r="T16" s="26"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
@@ -32803,12 +32834,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="E15:G15"/>
@@ -32818,6 +32843,12 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="T3:W3"/>
     <mergeCell ref="P16:S16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -32838,39 +32869,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="69" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="77" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="80" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="66" t="s">
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="61"/>
       <c r="AG1" s="33"/>
       <c r="AH1" s="33" t="s">
         <v>20</v>
@@ -32956,12 +32987,12 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="62" t="s">
+      <c r="T3" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="64"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81"/>
       <c r="AG3" s="34" t="s">
         <v>40</v>
       </c>
@@ -33337,10 +33368,10 @@
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="61"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="78"/>
       <c r="T11" s="26" t="s">
         <v>25</v>
       </c>
@@ -33419,11 +33450,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="10">
@@ -33432,18 +33463,18 @@
       <c r="K13" s="11">
         <v>0.94630000000000003</v>
       </c>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="73"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="66"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="60" t="s">
+      <c r="R13" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="S13" s="61"/>
+      <c r="S13" s="78"/>
       <c r="T13" s="26"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
@@ -33463,11 +33494,11 @@
         <v>9</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="10">
@@ -33502,14 +33533,14 @@
       <c r="A15" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="37">
@@ -33545,11 +33576,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="10">
@@ -33568,12 +33599,12 @@
         <v>16</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="59" t="s">
+      <c r="P16" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="61"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="78"/>
       <c r="T16" s="26"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
@@ -34060,6 +34091,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="E14:G14"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
     <mergeCell ref="T3:W3"/>
@@ -34068,13 +34106,6 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:O1"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34095,39 +34126,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="69" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="77" t="s">
+      <c r="K1" s="63"/>
+      <c r="L1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="80" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="66" t="s">
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="68"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="61"/>
       <c r="Y1" s="84" t="s">
         <v>68</v>
       </c>
@@ -34230,12 +34261,12 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="62" t="s">
+      <c r="T3" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="64"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81"/>
       <c r="AG3" s="34" t="s">
         <v>40</v>
       </c>
@@ -34633,10 +34664,10 @@
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="61"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="78"/>
       <c r="T11" s="26" t="s">
         <v>25</v>
       </c>
@@ -34718,11 +34749,11 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="10">
@@ -34731,18 +34762,18 @@
       <c r="K13" s="11">
         <v>0.65639999999999998</v>
       </c>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="73"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="66"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="60" t="s">
+      <c r="R13" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="S13" s="61"/>
+      <c r="S13" s="78"/>
       <c r="T13" s="26"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27"/>
@@ -34769,11 +34800,11 @@
         <v>9</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="J14" s="10">
@@ -34812,14 +34843,14 @@
       <c r="A15" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="37">
@@ -34862,11 +34893,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
       <c r="J16" s="10">
@@ -34885,12 +34916,12 @@
         <v>16</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="59" t="s">
+      <c r="P16" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="61"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="78"/>
       <c r="T16" s="26"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27"/>
@@ -35664,39 +35695,39 @@
       <c r="AJ43" s="85"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="69" t="s">
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="K44" s="70"/>
-      <c r="L44" s="77" t="s">
+      <c r="K44" s="63"/>
+      <c r="L44" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="80" t="s">
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="Q44" s="81"/>
-      <c r="R44" s="81"/>
-      <c r="S44" s="82"/>
-      <c r="T44" s="66" t="s">
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="U44" s="67"/>
-      <c r="V44" s="67"/>
-      <c r="W44" s="68"/>
+      <c r="U44" s="60"/>
+      <c r="V44" s="60"/>
+      <c r="W44" s="61"/>
       <c r="AG44" s="33"/>
       <c r="AH44" s="33" t="s">
         <v>20</v>
@@ -35778,12 +35809,12 @@
       <c r="Q46" s="21"/>
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
-      <c r="T46" s="62" t="s">
+      <c r="T46" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="U46" s="63"/>
-      <c r="V46" s="63"/>
-      <c r="W46" s="64"/>
+      <c r="U46" s="80"/>
+      <c r="V46" s="80"/>
+      <c r="W46" s="81"/>
       <c r="AG46" s="34" t="s">
         <v>40</v>
       </c>
@@ -36150,10 +36181,10 @@
       </c>
       <c r="N54" s="15"/>
       <c r="O54" s="16"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="61"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="77"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="78"/>
       <c r="T54" s="26" t="s">
         <v>25</v>
       </c>
@@ -36232,11 +36263,11 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="65" t="s">
+      <c r="E56" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="82"/>
       <c r="H56" s="2"/>
       <c r="I56" s="3"/>
       <c r="J56" s="10">
@@ -36245,18 +36276,18 @@
       <c r="K56" s="11">
         <v>0.65639999999999998</v>
       </c>
-      <c r="L56" s="71" t="s">
+      <c r="L56" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M56" s="72"/>
-      <c r="N56" s="72"/>
-      <c r="O56" s="73"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="66"/>
       <c r="P56" s="20"/>
       <c r="Q56" s="21"/>
-      <c r="R56" s="60" t="s">
+      <c r="R56" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="S56" s="61"/>
+      <c r="S56" s="78"/>
       <c r="T56" s="26"/>
       <c r="U56" s="27"/>
       <c r="V56" s="27"/>
@@ -36279,11 +36310,11 @@
         <v>9</v>
       </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="65" t="s">
+      <c r="E57" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="82"/>
       <c r="H57" s="2"/>
       <c r="I57" s="3"/>
       <c r="J57" s="10">
@@ -36318,14 +36349,14 @@
       <c r="A58" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="65" t="s">
+      <c r="E58" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
       <c r="H58" s="2"/>
       <c r="I58" s="3"/>
       <c r="J58" s="37">
@@ -36364,11 +36395,11 @@
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="65" t="s">
+      <c r="E59" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="65"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
       <c r="H59" s="2"/>
       <c r="I59" s="3"/>
       <c r="J59" s="10">
@@ -36387,12 +36418,12 @@
         <v>16</v>
       </c>
       <c r="O59" s="16"/>
-      <c r="P59" s="59" t="s">
+      <c r="P59" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="Q59" s="60"/>
-      <c r="R59" s="60"/>
-      <c r="S59" s="61"/>
+      <c r="Q59" s="77"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="78"/>
       <c r="T59" s="26"/>
       <c r="U59" s="27"/>
       <c r="V59" s="27"/>
@@ -37020,6 +37051,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:S44"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="Y1:AE2"/>
     <mergeCell ref="E57:G57"/>
     <mergeCell ref="A58:C58"/>
@@ -37036,23 +37084,6 @@
     <mergeCell ref="R56:S56"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="P16:S16"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="P44:S44"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37063,8 +37094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706BDDE5-4778-1841-8D61-9EFD037E33A1}">
   <dimension ref="A1:AJ33"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="H11" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37075,26 +37106,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="69" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="62" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="88"/>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
       <c r="O1" s="53"/>
       <c r="P1" s="53"/>
       <c r="Q1" s="53"/>
@@ -37136,10 +37167,10 @@
       <c r="L2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="61"/>
+      <c r="N2" s="78"/>
       <c r="O2" s="54"/>
       <c r="P2" s="54"/>
       <c r="Q2" s="54"/>
@@ -37187,8 +37218,8 @@
       <c r="L3" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
       <c r="O3" s="54"/>
       <c r="P3" s="54"/>
       <c r="Q3" s="54"/>
@@ -37764,8 +37795,8 @@
       <c r="A15" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="2"/>
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
@@ -38436,33 +38467,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61D254-E623-7F41-9D09-BAB6DD5BFA61}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="69" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="62" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="88"/>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="75"/>
       <c r="O1" s="53"/>
       <c r="P1" s="53"/>
       <c r="Q1" s="53"/>
@@ -38494,10 +38525,10 @@
       <c r="L2" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="61"/>
+      <c r="N2" s="78"/>
       <c r="O2" s="54"/>
       <c r="P2" s="54"/>
       <c r="Q2" s="54"/>
@@ -38534,8 +38565,8 @@
       <c r="L3" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
       <c r="O3" s="54"/>
       <c r="P3" s="54"/>
       <c r="Q3" s="54"/>
@@ -39006,8 +39037,8 @@
       <c r="A15" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="2"/>
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
@@ -39163,10 +39194,10 @@
       <c r="N19" s="22"/>
       <c r="O19" s="54"/>
       <c r="P19" s="54">
-        <v>9.5000000000000001E-2</v>
+        <v>0.4</v>
       </c>
       <c r="Q19" s="54">
-        <v>0.34</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="R19" s="54"/>
       <c r="S19" s="54"/>
@@ -40088,17 +40119,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="N18:O18"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="I12:L12"/>
     <mergeCell ref="N12:Q12"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N18:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
